--- a/analysis/automated/probit_socioeconomic.xlsx
+++ b/analysis/automated/probit_socioeconomic.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,7 +613,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>insured ~ age + income + education + homeownership</t>
+          <t>documents ~ age + income + education + homeownership</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -622,19 +622,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.6864549724535463</v>
+        <v>-1.158126341895088</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001156518634104163</v>
+        <v>1.635289908893477e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.00286636048490907</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.8684063334155387</v>
       </c>
       <c r="G7" t="n">
-        <v>507.1789425334258</v>
+        <v>468.5224666201684</v>
       </c>
     </row>
     <row r="8">
@@ -645,19 +645,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.008500531273258274</v>
+        <v>0.003301516406142695</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01270721921329722</v>
+        <v>0.3442461032932399</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.00286636048490907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.8684063334155387</v>
       </c>
       <c r="G8" t="n">
-        <v>507.1789425334258</v>
+        <v>468.5224666201684</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.125904114360284e-06</v>
+        <v>5.447078104014202e-08</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4390281573409366</v>
+        <v>0.9711938161496182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.00286636048490907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.8684063334155387</v>
       </c>
       <c r="G9" t="n">
-        <v>507.1789425334258</v>
+        <v>468.5224666201684</v>
       </c>
     </row>
     <row r="10">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06156973243118969</v>
+        <v>0.01359477941789146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2195352478598736</v>
+        <v>0.796112720346526</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.00286636048490907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.8684063334155387</v>
       </c>
       <c r="G10" t="n">
-        <v>507.1789425334258</v>
+        <v>468.5224666201684</v>
       </c>
     </row>
     <row r="11">
@@ -714,25 +714,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4125035988216322</v>
+        <v>0.02257662241154697</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005367053501104609</v>
+        <v>0.8815447835019259</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.00286636048490907</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.8684063334155387</v>
       </c>
       <c r="G11" t="n">
-        <v>507.1789425334258</v>
+        <v>468.5224666201684</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>learned_routes ~ age + income + education + homeownership</t>
+          <t>insured ~ age + income + education + homeownership</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -741,19 +741,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.7198322361684131</v>
+        <v>-0.6864549724535463</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0004180590914338707</v>
+        <v>0.001156518634104163</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.02798920064085697</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.008252238442944938</v>
       </c>
       <c r="G12" t="n">
-        <v>535.6908621179921</v>
+        <v>507.1789425334258</v>
       </c>
     </row>
     <row r="13">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.000177106653469909</v>
+        <v>-0.008500531273258274</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9573946594861547</v>
+        <v>0.01270721921329722</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.02798920064085697</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.008252238442944938</v>
       </c>
       <c r="G13" t="n">
-        <v>535.6908621179921</v>
+        <v>507.1789425334258</v>
       </c>
     </row>
     <row r="14">
@@ -787,19 +787,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.071082017342693e-07</v>
+        <v>-1.125904114360284e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7708681245361051</v>
+        <v>0.4390281573409366</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.02798920064085697</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.008252238442944938</v>
       </c>
       <c r="G14" t="n">
-        <v>535.6908621179921</v>
+        <v>507.1789425334258</v>
       </c>
     </row>
     <row r="15">
@@ -810,19 +810,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.008728690014726806</v>
+        <v>0.06156973243118969</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8593358166728251</v>
+        <v>0.2195352478598736</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.02798920064085697</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.008252238442944938</v>
       </c>
       <c r="G15" t="n">
-        <v>535.6908621179921</v>
+        <v>507.1789425334258</v>
       </c>
     </row>
     <row r="16">
@@ -833,25 +833,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.07999015008585644</v>
+        <v>0.4125035988216322</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5742095259659015</v>
+        <v>0.005367053501104609</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.02798920064085697</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.008252238442944938</v>
       </c>
       <c r="G16" t="n">
-        <v>535.6908621179921</v>
+        <v>507.1789425334258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>supplies ~ age + income + education + homeownership</t>
+          <t>learned_routes ~ age + income + education + homeownership</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.160765269632224</v>
+        <v>-0.7198322361684131</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4318838420292714</v>
+        <v>0.0004180590914338707</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.0007357469617413903</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.9847232767350961</v>
       </c>
       <c r="G17" t="n">
-        <v>515.8249193262212</v>
+        <v>535.6908621179921</v>
       </c>
     </row>
     <row r="18">
@@ -883,19 +883,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01048430847780906</v>
+        <v>0.000177106653469909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00249661464190993</v>
+        <v>0.9573946594861547</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.0007357469617413903</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.9847232767350961</v>
       </c>
       <c r="G18" t="n">
-        <v>515.8249193262212</v>
+        <v>535.6908621179921</v>
       </c>
     </row>
     <row r="19">
@@ -906,19 +906,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.633306463232068e-06</v>
+        <v>4.071082017342693e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2837231682804984</v>
+        <v>0.7708681245361051</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.0007357469617413903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.9847232767350961</v>
       </c>
       <c r="G19" t="n">
-        <v>515.8249193262212</v>
+        <v>535.6908621179921</v>
       </c>
     </row>
     <row r="20">
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.03769222709366352</v>
+        <v>-0.008728690014726806</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4473197881853297</v>
+        <v>0.8593358166728251</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.0007357469617413903</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.9847232767350961</v>
       </c>
       <c r="G20" t="n">
-        <v>515.8249193262212</v>
+        <v>535.6908621179921</v>
       </c>
     </row>
     <row r="21">
@@ -952,25 +952,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2247311686030362</v>
+        <v>-0.07999015008585644</v>
       </c>
       <c r="D21" t="n">
-        <v>0.125375256942659</v>
+        <v>0.5742095259659015</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.0007357469617413903</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.9847232767350961</v>
       </c>
       <c r="G21" t="n">
-        <v>515.8249193262212</v>
+        <v>535.6908621179921</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>involved ~ age + income + education + homeownership</t>
+          <t>supplies ~ age + income + education + homeownership</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -979,19 +979,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.6086075874265205</v>
+        <v>-0.160765269632224</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02282377076662096</v>
+        <v>0.4318838420292714</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.02564411301384817</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0.01247874446928166</v>
       </c>
       <c r="G22" t="n">
-        <v>290.8796415402622</v>
+        <v>515.8249193262212</v>
       </c>
     </row>
     <row r="23">
@@ -1002,19 +1002,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.0185768793583388</v>
+        <v>-0.01048430847780906</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0002410905858731</v>
+        <v>0.00249661464190993</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.02564411301384817</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0.01247874446928166</v>
       </c>
       <c r="G23" t="n">
-        <v>290.8796415402622</v>
+        <v>515.8249193262212</v>
       </c>
     </row>
     <row r="24">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.264397637887615e-06</v>
+        <v>-1.633306463232068e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5129787193425936</v>
+        <v>0.2837231682804984</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.02564411301384817</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0.01247874446928166</v>
       </c>
       <c r="G24" t="n">
-        <v>290.8796415402622</v>
+        <v>515.8249193262212</v>
       </c>
     </row>
     <row r="25">
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.08896975702183549</v>
+        <v>-0.03769222709366352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.165549249873289</v>
+        <v>0.4473197881853297</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.02564411301384817</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0.01247874446928166</v>
       </c>
       <c r="G25" t="n">
-        <v>290.8796415402622</v>
+        <v>515.8249193262212</v>
       </c>
     </row>
     <row r="26">
@@ -1071,25 +1071,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.3912579780113766</v>
+        <v>0.2247311686030362</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04505266681227805</v>
+        <v>0.125375256942659</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.02564411301384817</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0.01247874446928166</v>
       </c>
       <c r="G26" t="n">
-        <v>290.8796415402622</v>
+        <v>515.8249193262212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>made_plan ~ age + income + education + homeownership</t>
+          <t>involved ~ age + income + education + homeownership</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1098,19 +1098,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.4005450086256861</v>
+        <v>-0.6086075874265205</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04889447784576826</v>
+        <v>0.02282377076662096</v>
       </c>
       <c r="E27" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.08213290233240522</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.0001116301248351705</v>
       </c>
       <c r="G27" t="n">
-        <v>521.4489872486407</v>
+        <v>290.8796415402622</v>
       </c>
     </row>
     <row r="28">
@@ -1121,19 +1121,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.006141769763030493</v>
+        <v>-0.0185768793583388</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07195757717459057</v>
+        <v>0.0002410905858731</v>
       </c>
       <c r="E28" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.08213290233240522</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.0001116301248351705</v>
       </c>
       <c r="G28" t="n">
-        <v>521.4489872486407</v>
+        <v>290.8796415402622</v>
       </c>
     </row>
     <row r="29">
@@ -1144,19 +1144,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.552215049815089e-07</v>
+        <v>1.264397637887615e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6495007996357036</v>
+        <v>0.5129787193425936</v>
       </c>
       <c r="E29" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.08213290233240522</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.0001116301248351705</v>
       </c>
       <c r="G29" t="n">
-        <v>521.4489872486407</v>
+        <v>290.8796415402622</v>
       </c>
     </row>
     <row r="30">
@@ -1167,19 +1167,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.04060617828917972</v>
+        <v>0.08896975702183549</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4143654136896315</v>
+        <v>0.165549249873289</v>
       </c>
       <c r="E30" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.08213290233240522</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.0001116301248351705</v>
       </c>
       <c r="G30" t="n">
-        <v>521.4489872486407</v>
+        <v>290.8796415402622</v>
       </c>
     </row>
     <row r="31">
@@ -1190,25 +1190,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.00522071962804393</v>
+        <v>-0.3912579780113766</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9710701023161568</v>
+        <v>0.04505266681227805</v>
       </c>
       <c r="E31" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.08213290233240522</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.0001116301248351705</v>
       </c>
       <c r="G31" t="n">
-        <v>521.4489872486407</v>
+        <v>290.8796415402622</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ age + income + education + homeownership</t>
+          <t>made_plan ~ age + income + education + homeownership</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.597706919563721</v>
+        <v>-0.4005450086256861</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02822831786589506</v>
+        <v>0.04889447784576826</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.009291925187358663</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.3306265063895251</v>
       </c>
       <c r="G32" t="n">
-        <v>279.4880849160475</v>
+        <v>521.4489872486407</v>
       </c>
     </row>
     <row r="33">
@@ -1240,19 +1240,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.01853035372303894</v>
+        <v>-0.006141769763030493</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002375037944388598</v>
+        <v>0.07195757717459057</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.009291925187358663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.3306265063895251</v>
       </c>
       <c r="G33" t="n">
-        <v>279.4880849160475</v>
+        <v>521.4489872486407</v>
       </c>
     </row>
     <row r="34">
@@ -1263,19 +1263,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1.503102980541668e-06</v>
+        <v>6.552215049815089e-07</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4817556445081065</v>
+        <v>0.6495007996357036</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.009291925187358663</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.3306265063895251</v>
       </c>
       <c r="G34" t="n">
-        <v>279.4880849160475</v>
+        <v>521.4489872486407</v>
       </c>
     </row>
     <row r="35">
@@ -1286,19 +1286,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.04511960359313733</v>
+        <v>-0.04060617828917972</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4911949102031491</v>
+        <v>0.4143654136896315</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.009291925187358663</v>
       </c>
       <c r="F35" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.3306265063895251</v>
       </c>
       <c r="G35" t="n">
-        <v>279.4880849160475</v>
+        <v>521.4489872486407</v>
       </c>
     </row>
     <row r="36">
@@ -1309,25 +1309,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.09948108029456267</v>
+        <v>-0.00522071962804393</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6147897278587642</v>
+        <v>0.9710701023161568</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.009291925187358663</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.3306265063895251</v>
       </c>
       <c r="G36" t="n">
-        <v>279.4880849160475</v>
+        <v>521.4489872486407</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>alerts ~ age + income + education + homeownership</t>
+          <t>practiced_drills ~ age + income + education + homeownership</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1336,19 +1336,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-1.030585628765476</v>
+        <v>-0.597706919563721</v>
       </c>
       <c r="D37" t="n">
-        <v>1.872129195652821e-06</v>
+        <v>0.02822831786589506</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.0591148576787055</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.003564720593372421</v>
       </c>
       <c r="G37" t="n">
-        <v>486.7100224139443</v>
+        <v>279.4880849160475</v>
       </c>
     </row>
     <row r="38">
@@ -1359,19 +1359,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.002011577934398101</v>
+        <v>-0.01853035372303894</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5578360325538739</v>
+        <v>0.0002375037944388598</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.0591148576787055</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.003564720593372421</v>
       </c>
       <c r="G38" t="n">
-        <v>486.7100224139443</v>
+        <v>279.4880849160475</v>
       </c>
     </row>
     <row r="39">
@@ -1382,19 +1382,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-7.94590582526994e-07</v>
+        <v>-1.503102980541668e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5977751653438991</v>
+        <v>0.4817556445081065</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.0591148576787055</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.003564720593372421</v>
       </c>
       <c r="G39" t="n">
-        <v>486.7100224139443</v>
+        <v>279.4880849160475</v>
       </c>
     </row>
     <row r="40">
@@ -1405,19 +1405,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01852342934015238</v>
+        <v>0.04511960359313733</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7139449496564777</v>
+        <v>0.4911949102031491</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.0591148576787055</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.003564720593372421</v>
       </c>
       <c r="G40" t="n">
-        <v>486.7100224139443</v>
+        <v>279.4880849160475</v>
       </c>
     </row>
     <row r="41">
@@ -1428,25 +1428,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.08197136785014067</v>
+        <v>0.09948108029456267</v>
       </c>
       <c r="D41" t="n">
-        <v>0.580660424328699</v>
+        <v>0.6147897278587642</v>
       </c>
       <c r="E41" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.0591148576787055</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.003564720593372421</v>
       </c>
       <c r="G41" t="n">
-        <v>486.7100224139443</v>
+        <v>279.4880849160475</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>family_communication ~ age + income + education + homeownership</t>
+          <t>alerts ~ age + income + education + homeownership</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1455,19 +1455,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.9337577901983053</v>
+        <v>-1.030585628765476</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0002065710701134063</v>
+        <v>1.872129195652821e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.002387135747649705</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.8957039270524888</v>
       </c>
       <c r="G42" t="n">
-        <v>333.3845406057385</v>
+        <v>486.7100224139443</v>
       </c>
     </row>
     <row r="43">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.01062838058505198</v>
+        <v>0.002011577934398101</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01216555363805579</v>
+        <v>0.5578360325538739</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.002387135747649705</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.8957039270524888</v>
       </c>
       <c r="G43" t="n">
-        <v>333.3845406057385</v>
+        <v>486.7100224139443</v>
       </c>
     </row>
     <row r="44">
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-5.488783100113474e-07</v>
+        <v>-7.94590582526994e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7649882893097475</v>
+        <v>0.5977751653438991</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.002387135747649705</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.8957039270524888</v>
       </c>
       <c r="G44" t="n">
-        <v>333.3845406057385</v>
+        <v>486.7100224139443</v>
       </c>
     </row>
     <row r="45">
@@ -1524,19 +1524,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.08046729901406391</v>
+        <v>0.01852342934015238</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1825613820494061</v>
+        <v>0.7139449496564777</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.002387135747649705</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.8957039270524888</v>
       </c>
       <c r="G45" t="n">
-        <v>333.3845406057385</v>
+        <v>486.7100224139443</v>
       </c>
     </row>
     <row r="46">
@@ -1547,29 +1547,149 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>0.08197136785014067</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.580660424328699</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002387135747649705</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8957039270524888</v>
+      </c>
+      <c r="G46" t="n">
+        <v>486.7100224139443</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>family_communication ~ age + income + education + homeownership</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.9337577901983053</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0002065710701134063</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0250637198170105</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1000075840509303</v>
+      </c>
+      <c r="G47" t="n">
+        <v>333.3845406057385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.01062838058505198</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01216555363805579</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0250637198170105</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1000075840509303</v>
+      </c>
+      <c r="G48" t="n">
+        <v>333.3845406057385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-5.488783100113474e-07</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7649882893097475</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0250637198170105</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1000075840509303</v>
+      </c>
+      <c r="G49" t="n">
+        <v>333.3845406057385</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.08046729901406391</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.1825613820494061</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0250637198170105</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1000075840509303</v>
+      </c>
+      <c r="G50" t="n">
+        <v>333.3845406057385</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>homeownership</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>0.01776218041129358</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D51" t="n">
         <v>0.9200853422711406</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E51" t="n">
         <v>0.0250637198170105</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F51" t="n">
         <v>0.1000075840509303</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G51" t="n">
         <v>333.3845406057385</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A32:A36"/>

--- a/analysis/automated/probit_socioeconomic.xlsx
+++ b/analysis/automated/probit_socioeconomic.xlsx
@@ -509,7 +509,7 @@
         <v>0.00499575442216741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01792324587097549</v>
+        <v>0.0378342497198846</v>
       </c>
       <c r="F2" t="n">
         <v>0.08849295609211935</v>
@@ -532,7 +532,7 @@
         <v>0.2424619426442691</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01792324587097549</v>
+        <v>0.0378342497198846</v>
       </c>
       <c r="F3" t="n">
         <v>0.08849295609211935</v>
@@ -555,7 +555,7 @@
         <v>0.07703372755571404</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01792324587097549</v>
+        <v>0.0378342497198846</v>
       </c>
       <c r="F4" t="n">
         <v>0.08849295609211935</v>
@@ -578,7 +578,7 @@
         <v>0.5088180147931431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01792324587097549</v>
+        <v>0.0378342497198846</v>
       </c>
       <c r="F5" t="n">
         <v>0.08849295609211935</v>
@@ -601,7 +601,7 @@
         <v>0.03476456196052707</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01792324587097549</v>
+        <v>0.0378342497198846</v>
       </c>
       <c r="F6" t="n">
         <v>0.08849295609211935</v>
@@ -628,7 +628,7 @@
         <v>1.635289908893477e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00286636048490907</v>
+        <v>0.005785444329405125</v>
       </c>
       <c r="F7" t="n">
         <v>0.8684063334155387</v>
@@ -651,7 +651,7 @@
         <v>0.3442461032932399</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00286636048490907</v>
+        <v>0.005785444329405125</v>
       </c>
       <c r="F8" t="n">
         <v>0.8684063334155387</v>
@@ -674,7 +674,7 @@
         <v>0.9711938161496182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00286636048490907</v>
+        <v>0.005785444329405125</v>
       </c>
       <c r="F9" t="n">
         <v>0.8684063334155387</v>
@@ -697,7 +697,7 @@
         <v>0.796112720346526</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00286636048490907</v>
+        <v>0.005785444329405125</v>
       </c>
       <c r="F10" t="n">
         <v>0.8684063334155387</v>
@@ -720,7 +720,7 @@
         <v>0.8815447835019259</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00286636048490907</v>
+        <v>0.005785444329405125</v>
       </c>
       <c r="F11" t="n">
         <v>0.8684063334155387</v>
@@ -747,7 +747,7 @@
         <v>0.001156518634104163</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.05505390996475217</v>
       </c>
       <c r="F12" t="n">
         <v>0.008252238442944938</v>
@@ -770,7 +770,7 @@
         <v>0.01270721921329722</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.05505390996475217</v>
       </c>
       <c r="F13" t="n">
         <v>0.008252238442944938</v>
@@ -793,7 +793,7 @@
         <v>0.4390281573409366</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.05505390996475217</v>
       </c>
       <c r="F14" t="n">
         <v>0.008252238442944938</v>
@@ -816,7 +816,7 @@
         <v>0.2195352478598736</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.05505390996475217</v>
       </c>
       <c r="F15" t="n">
         <v>0.008252238442944938</v>
@@ -839,7 +839,7 @@
         <v>0.005367053501104609</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02798920064085697</v>
+        <v>0.05505390996475217</v>
       </c>
       <c r="F16" t="n">
         <v>0.008252238442944938</v>
@@ -866,7 +866,7 @@
         <v>0.0004180590914338707</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.001526180969815909</v>
       </c>
       <c r="F17" t="n">
         <v>0.9847232767350961</v>
@@ -889,7 +889,7 @@
         <v>0.9573946594861547</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.001526180969815909</v>
       </c>
       <c r="F18" t="n">
         <v>0.9847232767350961</v>
@@ -912,7 +912,7 @@
         <v>0.7708681245361051</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.001526180969815909</v>
       </c>
       <c r="F19" t="n">
         <v>0.9847232767350961</v>
@@ -935,7 +935,7 @@
         <v>0.8593358166728251</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.001526180969815909</v>
       </c>
       <c r="F20" t="n">
         <v>0.9847232767350961</v>
@@ -958,7 +958,7 @@
         <v>0.5742095259659015</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007357469617413903</v>
+        <v>0.001526180969815909</v>
       </c>
       <c r="F21" t="n">
         <v>0.9847232767350961</v>
@@ -985,7 +985,7 @@
         <v>0.4318838420292714</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.05328517414163321</v>
       </c>
       <c r="F22" t="n">
         <v>0.01247874446928166</v>
@@ -1008,7 +1008,7 @@
         <v>0.00249661464190993</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.05328517414163321</v>
       </c>
       <c r="F23" t="n">
         <v>0.01247874446928166</v>
@@ -1031,7 +1031,7 @@
         <v>0.2837231682804984</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.05328517414163321</v>
       </c>
       <c r="F24" t="n">
         <v>0.01247874446928166</v>
@@ -1054,7 +1054,7 @@
         <v>0.4473197881853297</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.05328517414163321</v>
       </c>
       <c r="F25" t="n">
         <v>0.01247874446928166</v>
@@ -1077,7 +1077,7 @@
         <v>0.125375256942659</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02564411301384817</v>
+        <v>0.05328517414163321</v>
       </c>
       <c r="F26" t="n">
         <v>0.01247874446928166</v>
@@ -1104,7 +1104,7 @@
         <v>0.02282377076662096</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.1666362701671859</v>
       </c>
       <c r="F27" t="n">
         <v>0.0001116301248351705</v>
@@ -1127,7 +1127,7 @@
         <v>0.0002410905858731</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.1666362701671859</v>
       </c>
       <c r="F28" t="n">
         <v>0.0001116301248351705</v>
@@ -1150,7 +1150,7 @@
         <v>0.5129787193425936</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.1666362701671859</v>
       </c>
       <c r="F29" t="n">
         <v>0.0001116301248351705</v>
@@ -1173,7 +1173,7 @@
         <v>0.165549249873289</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.1666362701671859</v>
       </c>
       <c r="F30" t="n">
         <v>0.0001116301248351705</v>
@@ -1196,7 +1196,7 @@
         <v>0.04505266681227805</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08213290233240522</v>
+        <v>0.1666362701671859</v>
       </c>
       <c r="F31" t="n">
         <v>0.0001116301248351705</v>
@@ -1223,7 +1223,7 @@
         <v>0.04889447784576826</v>
       </c>
       <c r="E32" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.01941181487944625</v>
       </c>
       <c r="F32" t="n">
         <v>0.3306265063895251</v>
@@ -1246,7 +1246,7 @@
         <v>0.07195757717459057</v>
       </c>
       <c r="E33" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.01941181487944625</v>
       </c>
       <c r="F33" t="n">
         <v>0.3306265063895251</v>
@@ -1269,7 +1269,7 @@
         <v>0.6495007996357036</v>
       </c>
       <c r="E34" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.01941181487944625</v>
       </c>
       <c r="F34" t="n">
         <v>0.3306265063895251</v>
@@ -1292,7 +1292,7 @@
         <v>0.4143654136896315</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.01941181487944625</v>
       </c>
       <c r="F35" t="n">
         <v>0.3306265063895251</v>
@@ -1315,7 +1315,7 @@
         <v>0.9710701023161568</v>
       </c>
       <c r="E36" t="n">
-        <v>0.009291925187358663</v>
+        <v>0.01941181487944625</v>
       </c>
       <c r="F36" t="n">
         <v>0.3306265063895251</v>
@@ -1342,7 +1342,7 @@
         <v>0.02822831786589506</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.1185592381128538</v>
       </c>
       <c r="F37" t="n">
         <v>0.003564720593372421</v>
@@ -1365,7 +1365,7 @@
         <v>0.0002375037944388598</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.1185592381128538</v>
       </c>
       <c r="F38" t="n">
         <v>0.003564720593372421</v>
@@ -1388,7 +1388,7 @@
         <v>0.4817556445081065</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.1185592381128538</v>
       </c>
       <c r="F39" t="n">
         <v>0.003564720593372421</v>
@@ -1411,7 +1411,7 @@
         <v>0.4911949102031491</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.1185592381128538</v>
       </c>
       <c r="F40" t="n">
         <v>0.003564720593372421</v>
@@ -1434,7 +1434,7 @@
         <v>0.6147897278587642</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0591148576787055</v>
+        <v>0.1185592381128538</v>
       </c>
       <c r="F41" t="n">
         <v>0.003564720593372421</v>
@@ -1461,7 +1461,7 @@
         <v>1.872129195652821e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.00488147781001129</v>
       </c>
       <c r="F42" t="n">
         <v>0.8957039270524888</v>
@@ -1484,7 +1484,7 @@
         <v>0.5578360325538739</v>
       </c>
       <c r="E43" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.00488147781001129</v>
       </c>
       <c r="F43" t="n">
         <v>0.8957039270524888</v>
@@ -1507,7 +1507,7 @@
         <v>0.5977751653438991</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.00488147781001129</v>
       </c>
       <c r="F44" t="n">
         <v>0.8957039270524888</v>
@@ -1530,7 +1530,7 @@
         <v>0.7139449496564777</v>
       </c>
       <c r="E45" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.00488147781001129</v>
       </c>
       <c r="F45" t="n">
         <v>0.8957039270524888</v>
@@ -1553,7 +1553,7 @@
         <v>0.580660424328699</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002387135747649705</v>
+        <v>0.00488147781001129</v>
       </c>
       <c r="F46" t="n">
         <v>0.8957039270524888</v>
@@ -1580,7 +1580,7 @@
         <v>0.0002065710701134063</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.04798934134444526</v>
       </c>
       <c r="F47" t="n">
         <v>0.1000075840509303</v>
@@ -1603,7 +1603,7 @@
         <v>0.01216555363805579</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.04798934134444526</v>
       </c>
       <c r="F48" t="n">
         <v>0.1000075840509303</v>
@@ -1626,7 +1626,7 @@
         <v>0.7649882893097475</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.04798934134444526</v>
       </c>
       <c r="F49" t="n">
         <v>0.1000075840509303</v>
@@ -1649,7 +1649,7 @@
         <v>0.1825613820494061</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.04798934134444526</v>
       </c>
       <c r="F50" t="n">
         <v>0.1000075840509303</v>
@@ -1672,7 +1672,7 @@
         <v>0.9200853422711406</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0250637198170105</v>
+        <v>0.04798934134444526</v>
       </c>
       <c r="F51" t="n">
         <v>0.1000075840509303</v>

--- a/analysis/automated/probit_socioeconomic.xlsx
+++ b/analysis/automated/probit_socioeconomic.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,36 @@
           <t>BIC</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dy/dx</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Std. Err.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;|z|)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Conf. Int. Low</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cont. Int. Hi.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,20 +533,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.5956565972159945</v>
+        <v>-0.596</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00499575442216741</v>
+        <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0378342497198846</v>
+        <v>0.038</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08849295609211935</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>473.8220927841394</v>
-      </c>
+        <v>473.822</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -526,19 +562,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.004089441862942946</v>
+        <v>-0.004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2424619426442691</v>
+        <v>0.242</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0378342497198846</v>
+        <v>0.038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08849295609211935</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>473.8220927841394</v>
+        <v>473.822</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.171</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -549,19 +603,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.885281077835751e-06</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07703372755571404</v>
+        <v>0.077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0378342497198846</v>
+        <v>0.038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08849295609211935</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>473.8220927841394</v>
+        <v>473.822</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1.777</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -572,19 +644,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.03412993521475383</v>
+        <v>-0.034</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5088180147931431</v>
+        <v>0.509</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0378342497198846</v>
+        <v>0.038</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08849295609211935</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>473.8220927841394</v>
+        <v>473.822</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.018</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +685,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3207616300681623</v>
+        <v>0.321</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03476456196052707</v>
+        <v>0.035</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0378342497198846</v>
+        <v>0.038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08849295609211935</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>473.8220927841394</v>
+        <v>473.822</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.161</v>
       </c>
     </row>
     <row r="7">
@@ -622,20 +730,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.158126341895088</v>
+        <v>-1.158</v>
       </c>
       <c r="D7" t="n">
-        <v>1.635289908893477e-07</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005785444329405125</v>
+        <v>0.006</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8684063334155387</v>
+        <v>0.868</v>
       </c>
       <c r="G7" t="n">
-        <v>468.5224666201684</v>
-      </c>
+        <v>468.522</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -645,19 +759,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003301516406142695</v>
+        <v>0.003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3442461032932399</v>
+        <v>0.344</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005785444329405125</v>
+        <v>0.006</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8684063334155387</v>
+        <v>0.868</v>
       </c>
       <c r="G8" t="n">
-        <v>468.5224666201684</v>
+        <v>468.522</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +800,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.447078104014202e-08</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9711938161496182</v>
+        <v>0.971</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005785444329405125</v>
+        <v>0.006</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8684063334155387</v>
+        <v>0.868</v>
       </c>
       <c r="G9" t="n">
-        <v>468.5224666201684</v>
+        <v>468.522</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -691,19 +841,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01359477941789146</v>
+        <v>0.014</v>
       </c>
       <c r="D10" t="n">
-        <v>0.796112720346526</v>
+        <v>0.796</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005785444329405125</v>
+        <v>0.006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8684063334155387</v>
+        <v>0.868</v>
       </c>
       <c r="G10" t="n">
-        <v>468.5224666201684</v>
+        <v>468.522</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="11">
@@ -714,19 +882,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02257662241154697</v>
+        <v>0.023</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8815447835019259</v>
+        <v>0.882</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005785444329405125</v>
+        <v>0.006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8684063334155387</v>
+        <v>0.868</v>
       </c>
       <c r="G11" t="n">
-        <v>468.5224666201684</v>
+        <v>468.522</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.082</v>
       </c>
     </row>
     <row r="12">
@@ -741,20 +927,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.6864549724535463</v>
+        <v>-0.6860000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001156518634104163</v>
+        <v>0.001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05505390996475217</v>
+        <v>0.055</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.008</v>
       </c>
       <c r="G12" t="n">
-        <v>507.1789425334258</v>
-      </c>
+        <v>507.179</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -764,19 +956,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.008500531273258274</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01270721921329722</v>
+        <v>0.013</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05505390996475217</v>
+        <v>0.055</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.008</v>
       </c>
       <c r="G13" t="n">
-        <v>507.1789425334258</v>
+        <v>507.179</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-2.524</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.001</v>
       </c>
     </row>
     <row r="14">
@@ -787,19 +997,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.125904114360284e-06</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4390281573409366</v>
+        <v>0.439</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05505390996475217</v>
+        <v>0.055</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.008</v>
       </c>
       <c r="G14" t="n">
-        <v>507.1789425334258</v>
+        <v>507.179</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.775</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -810,19 +1038,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.06156973243118969</v>
+        <v>0.062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2195352478598736</v>
+        <v>0.22</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05505390996475217</v>
+        <v>0.055</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.008</v>
       </c>
       <c r="G15" t="n">
-        <v>507.1789425334258</v>
+        <v>507.179</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.045</v>
       </c>
     </row>
     <row r="16">
@@ -833,19 +1079,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4125035988216322</v>
+        <v>0.413</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005367053501104609</v>
+        <v>0.005</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05505390996475217</v>
+        <v>0.055</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008252238442944938</v>
+        <v>0.008</v>
       </c>
       <c r="G16" t="n">
-        <v>507.1789425334258</v>
+        <v>507.179</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.198</v>
       </c>
     </row>
     <row r="17">
@@ -860,20 +1124,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.7198322361684131</v>
+        <v>-0.72</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004180590914338707</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001526180969815909</v>
+        <v>0.002</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.985</v>
       </c>
       <c r="G17" t="n">
-        <v>535.6908621179921</v>
-      </c>
+        <v>535.691</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -883,19 +1153,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.000177106653469909</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9573946594861547</v>
+        <v>0.957</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001526180969815909</v>
+        <v>0.002</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.985</v>
       </c>
       <c r="G18" t="n">
-        <v>535.6908621179921</v>
+        <v>535.691</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="19">
@@ -906,19 +1194,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.071082017342693e-07</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7708681245361051</v>
+        <v>0.771</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001526180969815909</v>
+        <v>0.002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.985</v>
       </c>
       <c r="G19" t="n">
-        <v>535.6908621179921</v>
+        <v>535.691</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -929,19 +1235,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.008728690014726806</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8593358166728251</v>
+        <v>0.859</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001526180969815909</v>
+        <v>0.002</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.985</v>
       </c>
       <c r="G20" t="n">
-        <v>535.6908621179921</v>
+        <v>535.691</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.177</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.026</v>
       </c>
     </row>
     <row r="21">
@@ -952,19 +1276,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.07999015008585644</v>
+        <v>-0.08</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5742095259659015</v>
+        <v>0.574</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001526180969815909</v>
+        <v>0.002</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9847232767350961</v>
+        <v>0.985</v>
       </c>
       <c r="G21" t="n">
-        <v>535.6908621179921</v>
+        <v>535.691</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.5620000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.108</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="22">
@@ -979,20 +1321,26 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.160765269632224</v>
+        <v>-0.161</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4318838420292714</v>
+        <v>0.432</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05328517414163321</v>
+        <v>0.053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.012</v>
       </c>
       <c r="G22" t="n">
-        <v>515.8249193262212</v>
-      </c>
+        <v>515.825</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1002,19 +1350,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01048430847780906</v>
+        <v>-0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00249661464190993</v>
+        <v>0.002</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05328517414163321</v>
+        <v>0.053</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.012</v>
       </c>
       <c r="G23" t="n">
-        <v>515.8249193262212</v>
+        <v>515.825</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.001</v>
       </c>
     </row>
     <row r="24">
@@ -1025,19 +1391,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1.633306463232068e-06</v>
+        <v>-0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2837231682804984</v>
+        <v>0.284</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05328517414163321</v>
+        <v>0.053</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.012</v>
       </c>
       <c r="G24" t="n">
-        <v>515.8249193262212</v>
+        <v>515.825</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-1.075</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,19 +1432,37 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.03769222709366352</v>
+        <v>-0.038</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4473197881853297</v>
+        <v>0.447</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05328517414163321</v>
+        <v>0.053</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.012</v>
       </c>
       <c r="G25" t="n">
-        <v>515.8249193262212</v>
+        <v>515.825</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.761</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.039</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.017</v>
       </c>
     </row>
     <row r="26">
@@ -1071,19 +1473,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2247311686030362</v>
+        <v>0.225</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125375256942659</v>
+        <v>0.125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05328517414163321</v>
+        <v>0.053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01247874446928166</v>
+        <v>0.012</v>
       </c>
       <c r="G26" t="n">
-        <v>515.8249193262212</v>
+        <v>515.825</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.147</v>
       </c>
     </row>
     <row r="27">
@@ -1098,20 +1518,26 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.6086075874265205</v>
+        <v>-0.609</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02282377076662096</v>
+        <v>0.023</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1666362701671859</v>
+        <v>0.167</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>290.8796415402622</v>
-      </c>
+        <v>290.88</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -1121,19 +1547,37 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.0185768793583388</v>
+        <v>-0.019</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0002410905858731</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1666362701671859</v>
+        <v>0.167</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>290.8796415402622</v>
+        <v>290.88</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-3.606</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.001</v>
       </c>
     </row>
     <row r="29">
@@ -1144,19 +1588,37 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.264397637887615e-06</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5129787193425936</v>
+        <v>0.513</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1666362701671859</v>
+        <v>0.167</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>290.8796415402622</v>
+        <v>290.88</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1167,19 +1629,37 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.08896975702183549</v>
+        <v>0.089</v>
       </c>
       <c r="D30" t="n">
-        <v>0.165549249873289</v>
+        <v>0.166</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1666362701671859</v>
+        <v>0.167</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>290.8796415402622</v>
+        <v>290.88</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="31">
@@ -1190,19 +1670,37 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.3912579780113766</v>
+        <v>-0.391</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04505266681227805</v>
+        <v>0.045</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1666362701671859</v>
+        <v>0.167</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0001116301248351705</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>290.8796415402622</v>
+        <v>290.88</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1.997</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.115</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.001</v>
       </c>
     </row>
     <row r="32">
@@ -1217,20 +1715,26 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.4005450086256861</v>
+        <v>-0.401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04889447784576826</v>
+        <v>0.049</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01941181487944625</v>
+        <v>0.019</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.331</v>
       </c>
       <c r="G32" t="n">
-        <v>521.4489872486407</v>
-      </c>
+        <v>521.449</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1240,19 +1744,37 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.006141769763030493</v>
+        <v>-0.006</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07195757717459057</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01941181487944625</v>
+        <v>0.019</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.331</v>
       </c>
       <c r="G33" t="n">
-        <v>521.4489872486407</v>
+        <v>521.449</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1.813</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1263,19 +1785,37 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.552215049815089e-07</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6495007996357036</v>
+        <v>0.65</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01941181487944625</v>
+        <v>0.019</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.331</v>
       </c>
       <c r="G34" t="n">
-        <v>521.4489872486407</v>
+        <v>521.449</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1286,19 +1826,37 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.04060617828917972</v>
+        <v>-0.041</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4143654136896315</v>
+        <v>0.414</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01941181487944625</v>
+        <v>0.019</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.331</v>
       </c>
       <c r="G35" t="n">
-        <v>521.4489872486407</v>
+        <v>521.449</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.8169999999999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.017</v>
       </c>
     </row>
     <row r="36">
@@ -1309,19 +1867,37 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.00522071962804393</v>
+        <v>-0.005</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9710701023161568</v>
+        <v>0.971</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01941181487944625</v>
+        <v>0.019</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3306265063895251</v>
+        <v>0.331</v>
       </c>
       <c r="G36" t="n">
-        <v>521.4489872486407</v>
+        <v>521.449</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.036</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.08400000000000001</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.081</v>
       </c>
     </row>
     <row r="37">
@@ -1336,20 +1912,26 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.597706919563721</v>
+        <v>-0.598</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02822831786589506</v>
+        <v>0.028</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1185592381128538</v>
+        <v>0.119</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.004</v>
       </c>
       <c r="G37" t="n">
-        <v>279.4880849160475</v>
-      </c>
+        <v>279.488</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -1359,19 +1941,37 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.01853035372303894</v>
+        <v>-0.019</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0002375037944388598</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1185592381128538</v>
+        <v>0.119</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.004</v>
       </c>
       <c r="G38" t="n">
-        <v>279.4880849160475</v>
+        <v>279.488</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-3.569</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.001</v>
       </c>
     </row>
     <row r="39">
@@ -1382,19 +1982,37 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-1.503102980541668e-06</v>
+        <v>-0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4817556445081065</v>
+        <v>0.482</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1185592381128538</v>
+        <v>0.119</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.004</v>
       </c>
       <c r="G39" t="n">
-        <v>279.4880849160475</v>
+        <v>279.488</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.703</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1405,19 +2023,37 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.04511960359313733</v>
+        <v>0.045</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4911949102031491</v>
+        <v>0.491</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1185592381128538</v>
+        <v>0.119</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.004</v>
       </c>
       <c r="G40" t="n">
-        <v>279.4880849160475</v>
+        <v>279.488</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.025</v>
       </c>
     </row>
     <row r="41">
@@ -1428,19 +2064,37 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.09948108029456267</v>
+        <v>0.099</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6147897278587642</v>
+        <v>0.615</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1185592381128538</v>
+        <v>0.119</v>
       </c>
       <c r="F41" t="n">
-        <v>0.003564720593372421</v>
+        <v>0.004</v>
       </c>
       <c r="G41" t="n">
-        <v>279.4880849160475</v>
+        <v>279.488</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.041</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1455,20 +2109,26 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.030585628765476</v>
+        <v>-1.031</v>
       </c>
       <c r="D42" t="n">
-        <v>1.872129195652821e-06</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00488147781001129</v>
+        <v>0.005</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.896</v>
       </c>
       <c r="G42" t="n">
-        <v>486.7100224139443</v>
-      </c>
+        <v>486.71</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -1478,19 +2138,37 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.002011577934398101</v>
+        <v>0.002</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5578360325538739</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00488147781001129</v>
+        <v>0.005</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.896</v>
       </c>
       <c r="G43" t="n">
-        <v>486.7100224139443</v>
+        <v>486.71</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="44">
@@ -1501,19 +2179,37 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-7.94590582526994e-07</v>
+        <v>-0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5977751653438991</v>
+        <v>0.598</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00488147781001129</v>
+        <v>0.005</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.896</v>
       </c>
       <c r="G44" t="n">
-        <v>486.7100224139443</v>
+        <v>486.71</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.528</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1524,19 +2220,37 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01852342934015238</v>
+        <v>0.019</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7139449496564777</v>
+        <v>0.714</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00488147781001129</v>
+        <v>0.005</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.896</v>
       </c>
       <c r="G45" t="n">
-        <v>486.7100224139443</v>
+        <v>486.71</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="46">
@@ -1547,19 +2261,37 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.08197136785014067</v>
+        <v>0.082</v>
       </c>
       <c r="D46" t="n">
-        <v>0.580660424328699</v>
+        <v>0.581</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00488147781001129</v>
+        <v>0.005</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8957039270524888</v>
+        <v>0.896</v>
       </c>
       <c r="G46" t="n">
-        <v>486.7100224139443</v>
+        <v>486.71</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
@@ -1574,20 +2306,26 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.9337577901983053</v>
+        <v>-0.9340000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0002065710701134063</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04798934134444526</v>
+        <v>0.048</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>333.3845406057385</v>
-      </c>
+        <v>333.385</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -1597,19 +2335,37 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.01062838058505198</v>
+        <v>-0.011</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01216555363805579</v>
+        <v>0.012</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04798934134444526</v>
+        <v>0.048</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.1</v>
       </c>
       <c r="G48" t="n">
-        <v>333.3845406057385</v>
+        <v>333.385</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-2.492</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="49">
@@ -1620,19 +2376,37 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-5.488783100113474e-07</v>
+        <v>-0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7649882893097475</v>
+        <v>0.765</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04798934134444526</v>
+        <v>0.048</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.1</v>
       </c>
       <c r="G49" t="n">
-        <v>333.3845406057385</v>
+        <v>333.385</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.299</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1643,19 +2417,37 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.08046729901406391</v>
+        <v>0.08</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1825613820494061</v>
+        <v>0.183</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04798934134444526</v>
+        <v>0.048</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.1</v>
       </c>
       <c r="G50" t="n">
-        <v>333.3845406057385</v>
+        <v>333.385</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.331</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.035</v>
       </c>
     </row>
     <row r="51">
@@ -1666,19 +2458,37 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01776218041129358</v>
+        <v>0.018</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9200853422711406</v>
+        <v>0.92</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04798934134444526</v>
+        <v>0.048</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1000075840509303</v>
+        <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>333.3845406057385</v>
+        <v>333.385</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.063</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/automated/probit_socioeconomic.xlsx
+++ b/analysis/automated/probit_socioeconomic.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>made_safer ~ age + income + education + homeownership</t>
+          <t>made_safer ~ age + income + sex + education + homeownership + rentmortgage</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.596</v>
+        <v>-0.83</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>473.822</v>
+        <v>483.26</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -562,19 +562,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242</v>
+        <v>0.405</v>
       </c>
       <c r="E3" t="n">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>473.822</v>
+        <v>483.26</v>
       </c>
       <c r="H3" t="n">
         <v>-0.001</v>
@@ -583,10 +583,10 @@
         <v>0.001</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.171</v>
+        <v>-0.834</v>
       </c>
       <c r="K3" t="n">
-        <v>0.241</v>
+        <v>0.404</v>
       </c>
       <c r="L3" t="n">
         <v>-0.003</v>
@@ -606,16 +606,16 @@
         <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.077</v>
+        <v>0.048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>473.822</v>
+        <v>483.26</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
@@ -624,607 +624,615 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.777</v>
+        <v>-1.994</v>
       </c>
       <c r="K4" t="n">
-        <v>0.076</v>
+        <v>0.046</v>
       </c>
       <c r="L4" t="n">
         <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.034</v>
+        <v>0.067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.509</v>
+        <v>0.631</v>
       </c>
       <c r="E5" t="n">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="G5" t="n">
-        <v>473.822</v>
+        <v>483.26</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="I5" t="n">
-        <v>0.014</v>
+        <v>0.036</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.661</v>
+        <v>0.48</v>
       </c>
       <c r="K5" t="n">
-        <v>0.508</v>
+        <v>0.631</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.035</v>
+        <v>-0.054</v>
       </c>
       <c r="M5" t="n">
-        <v>0.018</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G6" t="n">
+        <v>483.26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.806</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
           <t>homeownership</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>473.822</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.128</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>documents ~ age + income + education + homeownership</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>-1.158</v>
+        <v>0.381</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006</v>
+        <v>0.051</v>
       </c>
       <c r="F7" t="n">
-        <v>0.868</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>468.522</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>483.26</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.178</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>rentmortgage</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.344</v>
+        <v>0.096</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006</v>
+        <v>0.051</v>
       </c>
       <c r="F8" t="n">
-        <v>0.868</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>468.522</v>
+        <v>483.26</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.947</v>
+        <v>1.672</v>
       </c>
       <c r="K8" t="n">
-        <v>0.344</v>
+        <v>0.094</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>documents ~ age + income + sex + education + homeownership + rentmortgage</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>Intercept</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-1.323</v>
       </c>
       <c r="D9" t="n">
-        <v>0.971</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="F9" t="n">
-        <v>0.868</v>
+        <v>0.898</v>
       </c>
       <c r="G9" t="n">
-        <v>468.522</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
+        <v>479.871</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.796</v>
+        <v>0.283</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.868</v>
+        <v>0.898</v>
       </c>
       <c r="G10" t="n">
-        <v>468.522</v>
+        <v>479.871</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.014</v>
+        <v>0.001</v>
       </c>
       <c r="J10" t="n">
-        <v>0.258</v>
+        <v>1.075</v>
       </c>
       <c r="K10" t="n">
-        <v>0.796</v>
+        <v>0.282</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.023</v>
+        <v>-0.001</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>homeownership</t>
+          <t>income</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.023</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.882</v>
+        <v>0.985</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.868</v>
+        <v>0.898</v>
       </c>
       <c r="G11" t="n">
-        <v>468.522</v>
+        <v>479.871</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.149</v>
+        <v>-0.019</v>
       </c>
       <c r="K11" t="n">
-        <v>0.882</v>
+        <v>0.985</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.07099999999999999</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>insured ~ age + income + education + homeownership</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.6860000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001</v>
+        <v>0.477</v>
       </c>
       <c r="E12" t="n">
-        <v>0.055</v>
+        <v>0.011</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008</v>
+        <v>0.898</v>
       </c>
       <c r="G12" t="n">
-        <v>507.179</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+        <v>479.871</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.097</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.013</v>
+        <v>0.786</v>
       </c>
       <c r="E13" t="n">
-        <v>0.055</v>
+        <v>0.011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008</v>
+        <v>0.898</v>
       </c>
       <c r="G13" t="n">
-        <v>507.179</v>
+        <v>479.871</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.002</v>
+        <v>0.004</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001</v>
+        <v>0.014</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.524</v>
+        <v>0.272</v>
       </c>
       <c r="K13" t="n">
-        <v>0.012</v>
+        <v>0.786</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.004</v>
+        <v>-0.023</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>homeownership</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0.054</v>
       </c>
       <c r="D14" t="n">
-        <v>0.439</v>
+        <v>0.73</v>
       </c>
       <c r="E14" t="n">
-        <v>0.055</v>
+        <v>0.011</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008</v>
+        <v>0.898</v>
       </c>
       <c r="G14" t="n">
-        <v>507.179</v>
+        <v>479.871</v>
       </c>
       <c r="H14" t="n">
-        <v>-0</v>
+        <v>0.014</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.775</v>
+        <v>0.345</v>
       </c>
       <c r="K14" t="n">
-        <v>0.438</v>
+        <v>0.73</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>-0.065</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>rentmortgage</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22</v>
+        <v>0.447</v>
       </c>
       <c r="E15" t="n">
-        <v>0.055</v>
+        <v>0.011</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008</v>
+        <v>0.898</v>
       </c>
       <c r="G15" t="n">
-        <v>507.179</v>
+        <v>479.871</v>
       </c>
       <c r="H15" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.232</v>
+        <v>0.761</v>
       </c>
       <c r="K15" t="n">
-        <v>0.218</v>
+        <v>0.447</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>insured ~ age + income + sex + education + homeownership + rentmortgage</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>homeownership</t>
+          <t>Intercept</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.413</v>
+        <v>-0.991</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>0.008</v>
       </c>
       <c r="G16" t="n">
-        <v>507.179</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.832</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.198</v>
-      </c>
+        <v>515.76</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>learned_routes ~ age + income + education + homeownership</t>
-        </is>
-      </c>
+      <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.72</v>
+        <v>-0.008</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.985</v>
+        <v>0.008</v>
       </c>
       <c r="G17" t="n">
-        <v>535.691</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+        <v>515.76</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2.189</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>income</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.957</v>
+        <v>0.371</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.985</v>
+        <v>0.008</v>
       </c>
       <c r="G18" t="n">
-        <v>535.691</v>
+        <v>515.76</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.053</v>
+        <v>-0.895</v>
       </c>
       <c r="K18" t="n">
-        <v>0.957</v>
+        <v>0.371</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.002</v>
+        <v>-0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="D19" t="n">
-        <v>0.771</v>
+        <v>0.225</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.985</v>
+        <v>0.008</v>
       </c>
       <c r="G19" t="n">
-        <v>535.691</v>
+        <v>515.76</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="J19" t="n">
-        <v>0.291</v>
+        <v>1.218</v>
       </c>
       <c r="K19" t="n">
-        <v>0.771</v>
+        <v>0.223</v>
       </c>
       <c r="L19" t="n">
-        <v>-0</v>
+        <v>-0.028</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="20">
@@ -1235,37 +1243,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.061</v>
       </c>
       <c r="D20" t="n">
-        <v>0.859</v>
+        <v>0.233</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.985</v>
+        <v>0.008</v>
       </c>
       <c r="G20" t="n">
-        <v>535.691</v>
+        <v>515.76</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.003</v>
+        <v>0.017</v>
       </c>
       <c r="I20" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.177</v>
+        <v>1.195</v>
       </c>
       <c r="K20" t="n">
-        <v>0.859</v>
+        <v>0.232</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.032</v>
+        <v>-0.011</v>
       </c>
       <c r="M20" t="n">
-        <v>0.026</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="21">
@@ -1276,331 +1284,339 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.08</v>
+        <v>0.473</v>
       </c>
       <c r="D21" t="n">
-        <v>0.574</v>
+        <v>0.002</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.985</v>
+        <v>0.008</v>
       </c>
       <c r="G21" t="n">
-        <v>535.691</v>
+        <v>515.76</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.024</v>
+        <v>0.133</v>
       </c>
       <c r="I21" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.5620000000000001</v>
+        <v>3.175</v>
       </c>
       <c r="K21" t="n">
-        <v>0.574</v>
+        <v>0.001</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.108</v>
+        <v>0.051</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>supplies ~ age + income + education + homeownership</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
+          <t>rentmortgage</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G22" t="n">
+        <v>515.76</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.623</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>learned_routes ~ age + income + sex + education + homeownership + rentmortgage</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
           <t>Intercept</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>-0.161</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="G22" t="n">
-        <v>515.825</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
       <c r="C23" t="n">
-        <v>-0.01</v>
+        <v>-0.957</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.053</v>
+        <v>0.011</v>
       </c>
       <c r="F23" t="n">
-        <v>0.012</v>
+        <v>0.847</v>
       </c>
       <c r="G23" t="n">
-        <v>515.825</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-3.09</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-0.005</v>
-      </c>
-      <c r="M23" t="n">
-        <v>-0.001</v>
-      </c>
+        <v>545.691</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.284</v>
+        <v>0.795</v>
       </c>
       <c r="E24" t="n">
-        <v>0.053</v>
+        <v>0.011</v>
       </c>
       <c r="F24" t="n">
-        <v>0.012</v>
+        <v>0.847</v>
       </c>
       <c r="G24" t="n">
-        <v>515.825</v>
+        <v>545.691</v>
       </c>
       <c r="H24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.075</v>
+        <v>0.26</v>
       </c>
       <c r="K24" t="n">
-        <v>0.283</v>
+        <v>0.795</v>
       </c>
       <c r="L24" t="n">
-        <v>-0</v>
+        <v>-0.002</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>income</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.038</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.447</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.053</v>
+        <v>0.011</v>
       </c>
       <c r="F25" t="n">
-        <v>0.012</v>
+        <v>0.847</v>
       </c>
       <c r="G25" t="n">
-        <v>515.825</v>
+        <v>545.691</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.011</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.761</v>
+        <v>0.24</v>
       </c>
       <c r="K25" t="n">
-        <v>0.447</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.039</v>
+        <v>-0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>homeownership</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.225</v>
+        <v>0.154</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125</v>
+        <v>0.247</v>
       </c>
       <c r="E26" t="n">
-        <v>0.053</v>
+        <v>0.011</v>
       </c>
       <c r="F26" t="n">
-        <v>0.012</v>
+        <v>0.847</v>
       </c>
       <c r="G26" t="n">
-        <v>515.825</v>
+        <v>545.691</v>
       </c>
       <c r="H26" t="n">
-        <v>0.065</v>
+        <v>0.046</v>
       </c>
       <c r="I26" t="n">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="J26" t="n">
-        <v>1.541</v>
+        <v>1.162</v>
       </c>
       <c r="K26" t="n">
-        <v>0.123</v>
+        <v>0.245</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.018</v>
+        <v>-0.032</v>
       </c>
       <c r="M26" t="n">
-        <v>0.147</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>involved ~ age + income + education + homeownership</t>
-        </is>
-      </c>
+      <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.609</v>
+        <v>-0.008</v>
       </c>
       <c r="D27" t="n">
-        <v>0.023</v>
+        <v>0.875</v>
       </c>
       <c r="E27" t="n">
-        <v>0.167</v>
+        <v>0.011</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="G27" t="n">
-        <v>290.88</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+        <v>545.691</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.158</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.027</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>homeownership</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.019</v>
+        <v>-0.037</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.801</v>
       </c>
       <c r="E28" t="n">
-        <v>0.167</v>
+        <v>0.011</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="G28" t="n">
-        <v>290.88</v>
+        <v>545.691</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001</v>
+        <v>0.044</v>
       </c>
       <c r="J28" t="n">
-        <v>-3.606</v>
+        <v>-0.252</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.801</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.004</v>
+        <v>-0.097</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.001</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>rentmortgage</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.513</v>
+        <v>0.272</v>
       </c>
       <c r="E29" t="n">
-        <v>0.167</v>
+        <v>0.011</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="G29" t="n">
-        <v>290.88</v>
+        <v>545.691</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1609,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.654</v>
+        <v>1.103</v>
       </c>
       <c r="K29" t="n">
-        <v>0.513</v>
+        <v>0.27</v>
       </c>
       <c r="L29" t="n">
         <v>-0</v>
@@ -1622,288 +1638,288 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>supplies ~ age + income + sex + education + homeownership + rentmortgage</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Intercept</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.089</v>
+        <v>-0.418</v>
       </c>
       <c r="D30" t="n">
-        <v>0.166</v>
+        <v>0.105</v>
       </c>
       <c r="E30" t="n">
-        <v>0.167</v>
+        <v>0.067</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="G30" t="n">
-        <v>290.88</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.384</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.032</v>
-      </c>
+        <v>524.723</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>homeownership</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.391</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.045</v>
+        <v>0.01</v>
       </c>
       <c r="E31" t="n">
-        <v>0.167</v>
+        <v>0.067</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="G31" t="n">
-        <v>290.88</v>
+        <v>524.723</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.058</v>
+        <v>-0.003</v>
       </c>
       <c r="I31" t="n">
-        <v>0.029</v>
+        <v>0.001</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.997</v>
+        <v>-2.622</v>
       </c>
       <c r="K31" t="n">
-        <v>0.046</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.115</v>
+        <v>-0.005</v>
       </c>
       <c r="M31" t="n">
         <v>-0.001</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>made_plan ~ age + income + education + homeownership</t>
-        </is>
-      </c>
+      <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>income</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.401</v>
+        <v>-0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.049</v>
+        <v>0.181</v>
       </c>
       <c r="E32" t="n">
-        <v>0.019</v>
+        <v>0.067</v>
       </c>
       <c r="F32" t="n">
-        <v>0.331</v>
+        <v>0.013</v>
       </c>
       <c r="G32" t="n">
-        <v>521.449</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+        <v>524.723</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1.343</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.006</v>
+        <v>0.075</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.582</v>
       </c>
       <c r="E33" t="n">
-        <v>0.019</v>
+        <v>0.067</v>
       </c>
       <c r="F33" t="n">
-        <v>0.331</v>
+        <v>0.013</v>
       </c>
       <c r="G33" t="n">
-        <v>521.449</v>
+        <v>524.723</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.002</v>
+        <v>0.021</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001</v>
+        <v>0.039</v>
       </c>
       <c r="J33" t="n">
-        <v>-1.813</v>
+        <v>0.551</v>
       </c>
       <c r="K33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.004</v>
+        <v>-0.055</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-0.047</v>
       </c>
       <c r="D34" t="n">
-        <v>0.65</v>
+        <v>0.354</v>
       </c>
       <c r="E34" t="n">
-        <v>0.019</v>
+        <v>0.067</v>
       </c>
       <c r="F34" t="n">
-        <v>0.331</v>
+        <v>0.013</v>
       </c>
       <c r="G34" t="n">
-        <v>521.449</v>
+        <v>524.723</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="J34" t="n">
-        <v>0.455</v>
+        <v>-0.929</v>
       </c>
       <c r="K34" t="n">
-        <v>0.649</v>
+        <v>0.353</v>
       </c>
       <c r="L34" t="n">
-        <v>-0</v>
+        <v>-0.042</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>homeownership</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.041</v>
+        <v>0.292</v>
       </c>
       <c r="D35" t="n">
-        <v>0.414</v>
+        <v>0.053</v>
       </c>
       <c r="E35" t="n">
-        <v>0.019</v>
+        <v>0.067</v>
       </c>
       <c r="F35" t="n">
-        <v>0.331</v>
+        <v>0.013</v>
       </c>
       <c r="G35" t="n">
-        <v>521.449</v>
+        <v>524.723</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.012</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.014</v>
+        <v>0.043</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.8169999999999999</v>
+        <v>1.951</v>
       </c>
       <c r="K35" t="n">
-        <v>0.414</v>
+        <v>0.051</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.04</v>
+        <v>-0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.017</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>homeownership</t>
+          <t>rentmortgage</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.971</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.019</v>
+        <v>0.067</v>
       </c>
       <c r="F36" t="n">
-        <v>0.331</v>
+        <v>0.013</v>
       </c>
       <c r="G36" t="n">
-        <v>521.449</v>
+        <v>524.723</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.036</v>
+        <v>1.815</v>
       </c>
       <c r="K36" t="n">
-        <v>0.971</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ age + income + education + homeownership</t>
+          <t>involved ~ age + income + sex + education + homeownership + rentmortgage</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1912,19 +1928,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.598</v>
+        <v>-0.592</v>
       </c>
       <c r="D37" t="n">
-        <v>0.028</v>
+        <v>0.079</v>
       </c>
       <c r="E37" t="n">
-        <v>0.119</v>
+        <v>0.168</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G37" t="n">
-        <v>279.488</v>
+        <v>302.927</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1947,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.119</v>
+        <v>0.168</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G38" t="n">
-        <v>279.488</v>
+        <v>302.927</v>
       </c>
       <c r="H38" t="n">
         <v>-0.003</v>
@@ -1962,7 +1978,7 @@
         <v>0.001</v>
       </c>
       <c r="J38" t="n">
-        <v>-3.569</v>
+        <v>-3.606</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -1982,31 +1998,31 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.482</v>
+        <v>0.446</v>
       </c>
       <c r="E39" t="n">
-        <v>0.119</v>
+        <v>0.168</v>
       </c>
       <c r="F39" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G39" t="n">
-        <v>279.488</v>
+        <v>302.927</v>
       </c>
       <c r="H39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.703</v>
+        <v>0.762</v>
       </c>
       <c r="K39" t="n">
-        <v>0.482</v>
+        <v>0.446</v>
       </c>
       <c r="L39" t="n">
         <v>-0</v>
@@ -2019,490 +2035,1294 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.045</v>
+        <v>0.056</v>
       </c>
       <c r="D40" t="n">
-        <v>0.491</v>
+        <v>0.756</v>
       </c>
       <c r="E40" t="n">
-        <v>0.119</v>
+        <v>0.168</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G40" t="n">
-        <v>279.488</v>
+        <v>302.927</v>
       </c>
       <c r="H40" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="I40" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.027</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="K40" t="n">
-        <v>0.492</v>
+        <v>0.756</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.012</v>
+        <v>-0.044</v>
       </c>
       <c r="M40" t="n">
-        <v>0.025</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>homeownership</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.099</v>
+        <v>0.095</v>
       </c>
       <c r="D41" t="n">
-        <v>0.615</v>
+        <v>0.146</v>
       </c>
       <c r="E41" t="n">
-        <v>0.119</v>
+        <v>0.168</v>
       </c>
       <c r="F41" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G41" t="n">
-        <v>279.488</v>
+        <v>302.927</v>
       </c>
       <c r="H41" t="n">
         <v>0.014</v>
       </c>
       <c r="I41" t="n">
-        <v>0.028</v>
+        <v>0.01</v>
       </c>
       <c r="J41" t="n">
-        <v>0.503</v>
+        <v>1.45</v>
       </c>
       <c r="K41" t="n">
-        <v>0.615</v>
+        <v>0.147</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.041</v>
+        <v>-0.005</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>alerts ~ age + income + education + homeownership</t>
-        </is>
-      </c>
+      <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>homeownership</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.031</v>
+        <v>-0.408</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="E42" t="n">
-        <v>0.005</v>
+        <v>0.168</v>
       </c>
       <c r="F42" t="n">
-        <v>0.896</v>
+        <v>0.001</v>
       </c>
       <c r="G42" t="n">
-        <v>486.71</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+        <v>302.927</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-2.019</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.119</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.002</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>rentmortgage</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.002</v>
+        <v>-0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.005</v>
+        <v>0.168</v>
       </c>
       <c r="F43" t="n">
-        <v>0.896</v>
+        <v>0.001</v>
       </c>
       <c r="G43" t="n">
-        <v>486.71</v>
+        <v>302.927</v>
       </c>
       <c r="H43" t="n">
-        <v>0.001</v>
+        <v>-0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.586</v>
+        <v>-0.407</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>made_plan ~ age + income + sex + education + homeownership + rentmortgage</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>Intercept</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0</v>
+        <v>-0.602</v>
       </c>
       <c r="D44" t="n">
-        <v>0.598</v>
+        <v>0.017</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005</v>
+        <v>0.029</v>
       </c>
       <c r="F44" t="n">
-        <v>0.896</v>
+        <v>0.336</v>
       </c>
       <c r="G44" t="n">
-        <v>486.71</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>-0.528</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
+        <v>531.529</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.019</v>
+        <v>-0.005</v>
       </c>
       <c r="D45" t="n">
-        <v>0.714</v>
+        <v>0.136</v>
       </c>
       <c r="E45" t="n">
-        <v>0.005</v>
+        <v>0.029</v>
       </c>
       <c r="F45" t="n">
-        <v>0.896</v>
+        <v>0.336</v>
       </c>
       <c r="G45" t="n">
-        <v>486.71</v>
+        <v>531.529</v>
       </c>
       <c r="H45" t="n">
-        <v>0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="I45" t="n">
-        <v>0.014</v>
+        <v>0.001</v>
       </c>
       <c r="J45" t="n">
-        <v>0.367</v>
+        <v>-1.5</v>
       </c>
       <c r="K45" t="n">
-        <v>0.714</v>
+        <v>0.134</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.022</v>
+        <v>-0.003</v>
       </c>
       <c r="M45" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>homeownership</t>
+          <t>income</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.581</v>
+        <v>0.841</v>
       </c>
       <c r="E46" t="n">
-        <v>0.005</v>
+        <v>0.029</v>
       </c>
       <c r="F46" t="n">
-        <v>0.896</v>
+        <v>0.336</v>
       </c>
       <c r="G46" t="n">
-        <v>486.71</v>
+        <v>531.529</v>
       </c>
       <c r="H46" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.553</v>
+        <v>0.2</v>
       </c>
       <c r="K46" t="n">
-        <v>0.58</v>
+        <v>0.841</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.056</v>
+        <v>-0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>family_communication ~ age + income + education + homeownership</t>
-        </is>
-      </c>
+      <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.9340000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.648</v>
       </c>
       <c r="E47" t="n">
-        <v>0.048</v>
+        <v>0.029</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1</v>
+        <v>0.336</v>
       </c>
       <c r="G47" t="n">
-        <v>333.385</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+        <v>531.529</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.094</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.011</v>
+        <v>-0.048</v>
       </c>
       <c r="D48" t="n">
-        <v>0.012</v>
+        <v>0.348</v>
       </c>
       <c r="E48" t="n">
-        <v>0.048</v>
+        <v>0.029</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1</v>
+        <v>0.336</v>
       </c>
       <c r="G48" t="n">
-        <v>333.385</v>
+        <v>531.529</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.002</v>
+        <v>-0.014</v>
       </c>
       <c r="I48" t="n">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.492</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>0.013</v>
+        <v>0.347</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.003</v>
+        <v>-0.043</v>
       </c>
       <c r="M48" t="n">
-        <v>-0</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>homeownership</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0</v>
+        <v>0.046</v>
       </c>
       <c r="D49" t="n">
-        <v>0.765</v>
+        <v>0.755</v>
       </c>
       <c r="E49" t="n">
-        <v>0.048</v>
+        <v>0.029</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1</v>
+        <v>0.336</v>
       </c>
       <c r="G49" t="n">
-        <v>333.385</v>
+        <v>531.529</v>
       </c>
       <c r="H49" t="n">
-        <v>-0</v>
+        <v>0.013</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.299</v>
+        <v>0.311</v>
       </c>
       <c r="K49" t="n">
-        <v>0.765</v>
+        <v>0.755</v>
       </c>
       <c r="L49" t="n">
-        <v>-0</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
+          <t>rentmortgage</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="G50" t="n">
+        <v>531.529</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>practiced_drills ~ age + income + sex + education + homeownership + rentmortgage</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.915</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G51" t="n">
+        <v>286.511</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G52" t="n">
+        <v>286.511</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-3.135</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G53" t="n">
+        <v>286.511</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.189</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G54" t="n">
+        <v>286.511</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.052</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
           <t>education</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C55" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G55" t="n">
+        <v>286.511</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>homeownership</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G56" t="n">
+        <v>286.511</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="M56" t="n">
         <v>0.08</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>333.385</v>
-      </c>
-      <c r="H50" t="n">
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>rentmortgage</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G57" t="n">
+        <v>286.511</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>alerts ~ age + income + sex + education + homeownership + rentmortgage</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.409</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G58" t="n">
+        <v>493.471</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G59" t="n">
+        <v>493.471</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G60" t="n">
+        <v>493.471</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G61" t="n">
+        <v>493.471</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.108</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G62" t="n">
+        <v>493.471</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I62" t="n">
         <v>0.014</v>
       </c>
-      <c r="I50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.331</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="J62" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>homeownership</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G63" t="n">
+        <v>493.471</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>rentmortgage</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G64" t="n">
+        <v>493.471</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>family_communication ~ age + income + sex + education + homeownership + rentmortgage</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.411</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G65" t="n">
+        <v>339.977</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G66" t="n">
+        <v>339.977</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-2.128</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G67" t="n">
+        <v>339.977</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.441</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G68" t="n">
+        <v>339.977</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G69" t="n">
+        <v>339.977</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="L69" t="n">
         <v>-0.007</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M69" t="n">
         <v>0.035</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>homeownership</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>333.385</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="C70" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G70" t="n">
+        <v>339.977</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I70" t="n">
         <v>0.031</v>
       </c>
-      <c r="J51" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L51" t="n">
-        <v>-0.057</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.063</v>
+      <c r="J70" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.041</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>rentmortgage</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G71" t="n">
+        <v>339.977</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A30:A36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
